--- a/database/tools.xlsx
+++ b/database/tools.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>TOOL_NAME</t>
   </si>
@@ -109,7 +109,7 @@
     <t>https://bi.edu.pk/wp-content/uploads/2024/04/Online-OCR.jpg</t>
   </si>
   <si>
-    <t>removal.ai</t>
+    <t>Removal.ai</t>
   </si>
   <si>
     <t>Background Removal</t>
@@ -140,7 +140,7 @@
     <t>https://s3-alpha-sig.figma.com/plugins/989743143186277232/18649/e883aff5-5390-4da8-83cb-18c99ac3396d-cover?Expires=1717977600&amp;Key-Pair-Id=APKAQ4GOSFWCVNEHN3O4&amp;Signature=FGGKF7w-gjT1IjJHBHk9e~xr2ZOgd8DsRRVzjea~H8b5JaxtnpNEL4UR26DXjJbS-HSxQ3W1I2ob1zqcHGyCzhB8ObWz1ZX4uvZzyeRp3vwl-OWAzDJV-BQN9vj43gcs7VD9q6XH6IhzPjtgcwotMhwvxRNwgVjPgFD1C0Fu1BCOaT7dfRwyZ8uxM50~aMrqwKXlts8hEDmHWIfHokbUsSd3mVgAvKo4EXrQDnwNYkuI8fid508xIdaSzBjNecrFZ1W7bddDjlpRxVMybshgI1U0YAXweXSWVzPxyZvV4bP0BxrzP~PmZKAYMgXu1uPfFyjgV2PPjidrjQP0ZiDMgQ__</t>
   </si>
   <si>
-    <t>Google Gemini</t>
+    <t>Gemini</t>
   </si>
   <si>
     <t>AI Chatbot</t>
@@ -174,7 +174,7 @@
     <t>https://bulksignature.com/wp-content/uploads/2024/02/Frame-876-1024x569.png</t>
   </si>
   <si>
-    <t>OpenAI ChatGPT</t>
+    <t>ChatGPT</t>
   </si>
   <si>
     <t>https://chatgpt.com/</t>
@@ -335,6 +335,188 @@
   <si>
     <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhQN5Hbj66KFLo2HfO5qnalkDkMypMmkloQeOz98KKG8zWDgyFrLZqOYyZZgAP-oUlsVKdVJ9pgkR9UQf08pZFSixJrNMn5_rAR0PL3PNYJtp2vW_HVDSqpU57vGOoGuZjVR7cLcj573vHdhXAgLexFbl6AipjMTulOhYLahlIVrj4HOgVzsA6xnkhh45L5/s16000-rw/BlackBox%20AI.webp</t>
   </si>
+  <si>
+    <t>SlidesAI</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>https://www.slidesai.io/</t>
+  </si>
+  <si>
+    <t>Generates presentation slides from text input or outlines.
+Offers customizable templates and design options.
+Includes a library of stock images and icons.
+Integrates with Google Slides and PowerPoint.
+Supports collaboration features for team projects.</t>
+  </si>
+  <si>
+    <t>Free version has limited features and watermarks.
+AI-generated content may require manual editing.
+Not as flexible as creating presentations manually.
+Limited customization options for advanced users.
+May produce generic or repetitive slide designs.</t>
+  </si>
+  <si>
+    <t>https://ai.bizequals.com/media/com_jbusinessdirectory/pictures/companies/4/slidesai-logo-og.webp</t>
+  </si>
+  <si>
+    <t>Looka</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Logo Maker</t>
+  </si>
+  <si>
+    <t>https://looka.com/</t>
+  </si>
+  <si>
+    <t>Easy-to-use interface with AI-powered logo generation.
+Wide variety of customizable templates and design elements.
+Offers additional branding materials (business cards, social media kits, etc.).
+Provides high-resolution logo files in various formats.
+Includes social media design tools and brand guidelines.</t>
+  </si>
+  <si>
+    <t>Free plan has very limited options and watermarks.
+Some designs may look generic or similar to others.
+Not suitable for highly complex or unique logo concepts.
+Paid plans can be expensive for small businesses or individuals.
+Limited customer support options.</t>
+  </si>
+  <si>
+    <t>https://namesurfy.com/wp-content/uploads/2024/02/Looka-Brand-Logo.png</t>
+  </si>
+  <si>
+    <t>LogoAI</t>
+  </si>
+  <si>
+    <t>https://www.logoai.com/</t>
+  </si>
+  <si>
+    <t>Quick and easy logo generation with AI assistance.
+Wide range of logo styles and design options.
+Allows customization of colors, fonts, and icons.
+Offers additional branding materials (business cards, social media graphics).
+Provides high-resolution logo files for download.</t>
+  </si>
+  <si>
+    <t>Free plan has very limited options and low-resolution files.
+Some designs may lack originality or creativity.
+Not ideal for complex or intricate logo concepts.
+Paid plans can be expensive compared to other options.
+Customer support can be slow or unresponsive.</t>
+  </si>
+  <si>
+    <t>https://www.techopedia.com/wp-content/uploads/2024/04/LogoAi-Logo.jpeg</t>
+  </si>
+  <si>
+    <t>Designs.ai</t>
+  </si>
+  <si>
+    <t>Graphic</t>
+  </si>
+  <si>
+    <t>https://designs.ai/</t>
+  </si>
+  <si>
+    <t>Offers a suite of AI-powered design tools (logo maker, video maker, design maker, speech maker).
+Easy-to-use interface with customizable templates.
+Wide range of design assets (images, icons, fonts, music).
+Allows collaboration and sharing of projects.
+Provides high-quality outputs in various formats.</t>
+  </si>
+  <si>
+    <t>Free plan has very limited features and watermarks.
+AI-generated content may need refinement for professional use.
+Some templates can feel generic or repetitive.
+Paid plans can be expensive for individuals or small businesses.
+Customer support response time can vary.</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ZUvJ9sr6l9E/hq720.jpg?sqp=-oaymwEhCK4FEIIDSFryq4qpAxMIARUAAAAAGAElAADIQj0AgKJD&amp;rs=AOn4CLA2lHIWnl9jm1LJeVOVieTrIH5C_A</t>
+  </si>
+  <si>
+    <t>Midjourney</t>
+  </si>
+  <si>
+    <t>Art Generation</t>
+  </si>
+  <si>
+    <t>https://www.midjourney.com/</t>
+  </si>
+  <si>
+    <t>High-quality image generation with a focus on artistic and creative styles.
+Community-driven platform with active user engagement and feedback.
+Constant updates and improvements to the AI model.
+Versatile image generation capabilities, ranging from realistic to abstract.
+Strong community support and resources.</t>
+  </si>
+  <si>
+    <t>No free tier, only paid subscriptions available.
+Requires a Discord account to use.
+Can be difficult to master for beginners.
+Image generation can be slow at times.
+Occasional issues with image quality or consistency.</t>
+  </si>
+  <si>
+    <t>https://images.ctfassets.net/lzny33ho1g45/1n2FSKrgaU9uiRimBWhnhP/200a8a01daa60b13f068f865e205ed54/Group_12467.jpg?w=1520&amp;fm=jpg&amp;q=30&amp;fit=thumb&amp;h=760</t>
+  </si>
+  <si>
+    <t>Murf AI</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>https://murf.ai/</t>
+  </si>
+  <si>
+    <t>High-quality AI voice generation with realistic and natural-sounding voices.
+Wide variety of voices and accents to choose from.
+Easy-to-use interface with text-to-speech and voice cloning features.
+Ability to customize voice styles and add emotions.
+Integration with other tools and platforms.</t>
+  </si>
+  <si>
+    <t>Free plan has limitations on voice options and usage.
+Some generated voices may sound robotic or unnatural.
+Can be expensive for heavy users or businesses.
+Not as advanced as some other AI voice generators in terms of customization.
+Occasional glitches or errors in voice generation.</t>
+  </si>
+  <si>
+    <t>https://entrackr.com/storage/2022/09/Murf-AI.jpg</t>
+  </si>
+  <si>
+    <t>DALL·E 2</t>
+  </si>
+  <si>
+    <t>Image Generation</t>
+  </si>
+  <si>
+    <t>https://openai.com/dall-e-2</t>
+  </si>
+  <si>
+    <t>Powerful image generation capabilities with a focus on realism and accuracy.
+User-friendly interface with various customization options.
+Ability to generate images from detailed text descriptions.
+Supports image editing and variations.
+Constant improvements and updates to the AI model.</t>
+  </si>
+  <si>
+    <t>Free credits are limited, and additional credits can be costly.
+Image generation can be slow at times.
+Some generated images may have artifacts or inconsistencies.
+Not as strong in generating artistic or abstract images compared to Midjourney.
+Limited control over the specific details of generated images.</t>
+  </si>
+  <si>
+    <t>https://promptmuse.com/wp-content/uploads/2022/12/OpenAI-Dall-E-2.jpeg</t>
+  </si>
 </sst>
 </file>
 
@@ -408,11 +590,11 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -940,7 +1122,7 @@
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1084,7 +1266,7 @@
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1171,16 +1353,36 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1199,16 +1401,36 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1227,16 +1449,36 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1255,16 +1497,36 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1283,16 +1545,36 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1311,16 +1593,36 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1339,16 +1641,36 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -28868,23 +29190,38 @@
     <hyperlink r:id="rId2" ref="H2"/>
     <hyperlink r:id="rId3" ref="D3"/>
     <hyperlink r:id="rId4" ref="H3"/>
-    <hyperlink r:id="rId5" ref="D4"/>
-    <hyperlink r:id="rId6" ref="H4"/>
-    <hyperlink r:id="rId7" ref="D5"/>
-    <hyperlink r:id="rId8" ref="H5"/>
-    <hyperlink r:id="rId9" ref="D6"/>
-    <hyperlink r:id="rId10" ref="H6"/>
-    <hyperlink r:id="rId11" ref="D7"/>
-    <hyperlink r:id="rId12" ref="H7"/>
-    <hyperlink r:id="rId13" ref="D8"/>
-    <hyperlink r:id="rId14" ref="H8"/>
-    <hyperlink r:id="rId15" ref="D9"/>
-    <hyperlink r:id="rId16" ref="H9"/>
-    <hyperlink r:id="rId17" ref="D10"/>
-    <hyperlink r:id="rId18" ref="H10"/>
-    <hyperlink r:id="rId19" ref="D11"/>
-    <hyperlink r:id="rId20" ref="H11"/>
+    <hyperlink r:id="rId5" ref="A4"/>
+    <hyperlink r:id="rId6" ref="D4"/>
+    <hyperlink r:id="rId7" ref="H4"/>
+    <hyperlink r:id="rId8" ref="D5"/>
+    <hyperlink r:id="rId9" ref="H5"/>
+    <hyperlink r:id="rId10" ref="D6"/>
+    <hyperlink r:id="rId11" ref="H6"/>
+    <hyperlink r:id="rId12" ref="D7"/>
+    <hyperlink r:id="rId13" ref="H7"/>
+    <hyperlink r:id="rId14" ref="D8"/>
+    <hyperlink r:id="rId15" ref="H8"/>
+    <hyperlink r:id="rId16" ref="D9"/>
+    <hyperlink r:id="rId17" ref="H9"/>
+    <hyperlink r:id="rId18" ref="D10"/>
+    <hyperlink r:id="rId19" ref="H10"/>
+    <hyperlink r:id="rId20" ref="D11"/>
+    <hyperlink r:id="rId21" ref="H11"/>
+    <hyperlink r:id="rId22" ref="D12"/>
+    <hyperlink r:id="rId23" ref="H12"/>
+    <hyperlink r:id="rId24" ref="D13"/>
+    <hyperlink r:id="rId25" ref="H13"/>
+    <hyperlink r:id="rId26" ref="D14"/>
+    <hyperlink r:id="rId27" ref="H14"/>
+    <hyperlink r:id="rId28" ref="D15"/>
+    <hyperlink r:id="rId29" ref="H15"/>
+    <hyperlink r:id="rId30" ref="D16"/>
+    <hyperlink r:id="rId31" ref="H16"/>
+    <hyperlink r:id="rId32" ref="D17"/>
+    <hyperlink r:id="rId33" ref="H17"/>
+    <hyperlink r:id="rId34" ref="D18"/>
+    <hyperlink r:id="rId35" ref="H18"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId36"/>
 </worksheet>
 </file>